--- a/datosAdicionales.xlsx
+++ b/datosAdicionales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dccpcompras-my.sharepoint.com/personal/diego_martinez_chilecompra_cl/Documents/Escritorio/Dpt Comunicaciones/Reportes Automatizados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_AD4D2F04E46CFB4ACB3E20E085D3E622683EDF11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{177D9627-E471-4473-959D-6E36D1EF0948}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="11_AD4D2F04E46CFB4ACB3E20E085D3E622683EDF11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{941FD659-E79F-4AE5-A49E-652495726807}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="444" windowWidth="20196" windowHeight="11940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regional" sheetId="1" r:id="rId1"/>
@@ -127,19 +127,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -162,11 +156,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,6 +173,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -450,10 +445,15 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -467,10 +467,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>18</v>
       </c>
       <c r="C2">
@@ -478,10 +478,10 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
       <c r="C3">
@@ -489,10 +489,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4">
@@ -500,10 +500,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5">
@@ -511,10 +511,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6">
@@ -522,10 +522,10 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7">
@@ -533,10 +533,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8">
@@ -544,10 +544,10 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9">
@@ -555,10 +555,10 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10">
@@ -566,10 +566,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11">
@@ -577,10 +577,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>26</v>
       </c>
       <c r="C12">
@@ -588,10 +588,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
       <c r="C13">
@@ -599,10 +599,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14">
@@ -610,10 +610,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>28</v>
       </c>
       <c r="C15">
@@ -621,10 +621,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
       <c r="C16">
@@ -632,10 +632,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
       <c r="C17">

--- a/datosAdicionales.xlsx
+++ b/datosAdicionales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dccpcompras-my.sharepoint.com/personal/diego_martinez_chilecompra_cl/Documents/Escritorio/Dpt Comunicaciones/Reportes Automatizados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="11_AD4D2F04E46CFB4ACB3E20E085D3E622683EDF11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{941FD659-E79F-4AE5-A49E-652495726807}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_AD4D2F04E46CFB4ACB3E20E085D3E622683EDF11" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AAF94D0-F0A0-47E1-8990-19860E8763D4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
